--- a/ps300_nur_roda/raw_data_need for achievement.xlsx
+++ b/ps300_nur_roda/raw_data_need for achievement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nursyahirahmomin/Desktop/PS300/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alasdairclarke/Documents/ongoing projects/Achievement_Motivation/ps300_nur_roda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A89CB8-9968-A444-A82D-6443B5713AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F0004-FF28-9347-8788-97A29176CBB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" xr2:uid="{BCD3007B-F5AB-D047-9A3A-E3EF177F9E01}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{BCD3007B-F5AB-D047-9A3A-E3EF177F9E01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="47">
   <si>
     <t>group</t>
   </si>
@@ -534,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCACF8C-BCDF-FF40-AE9B-04984D985666}">
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3167,6 +3165,2506 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>23</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>38</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>23</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>18</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>39</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>29</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>12</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>48</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>12</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>4</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>53</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>7</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>27</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>34</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>30</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>30</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>35</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>34</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>30</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>39</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>32</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>32</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>5</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>45</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>45</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>28</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>28</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>25</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>30</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>28</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>32</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>35</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>38</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>39</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>39</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>19</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>5</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>50</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>28</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>28</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>25</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>29</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>30</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>30</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>39</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>30</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>24</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>45</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>30</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>5</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>7</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>55</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>28</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>28</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>15</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>30</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>30</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>28</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>29</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>30</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>32</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>35</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>33</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>31</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>29</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>22</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>10</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>35</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>33</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>30</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>30</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>27</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>28</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>29</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>32</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>33</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>32</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>45</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>20</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>33</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>17</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>28</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>28</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>19</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>28</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>31</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>38</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>20</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>38</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>39</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>39</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>29</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>28</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>30</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>27</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>28</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>7</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>29</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>30</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>35</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>30</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>32</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>25</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>33</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>32</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>18</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>5</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>31</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>28</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>19</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>25</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>29</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>28</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>30</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>35</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>30</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>44</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>39</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>39</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>6</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>6</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30">
+        <v>19</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>29</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>29</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>29</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>32</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>40</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>28</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>40</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>25</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>40</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>44</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>5</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>50</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AJ31">
+        <v>5</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>19</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>28</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>28</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>39</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>38</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>38</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>39</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32">
+        <v>30</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>32</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>31</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>50</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>50</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>10</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>15</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>28</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>30</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>28</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>35</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>35</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>40</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>40</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>42</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>4</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>50</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>50</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>24</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>25</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>25</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>30</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>31</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>31</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>30</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>30</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>32</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>40</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>19</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>19</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>20</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>10</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34">
+        <v>50</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>28</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>29</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>29</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>30</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>31</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>19</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>30</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>25</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>24</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>24</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>41</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>10</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>10</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35">
+        <v>10</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AJ35">
+        <v>26</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>26</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>28</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>27</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>32</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>28</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>30</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>30</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>40</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>40</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>35</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>10</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>45</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>50</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AJ36">
+        <v>27</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>24</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>26</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>27</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>28</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>29</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>29</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>30</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>31</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>40</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>15</v>
+      </c>
+      <c r="AC37">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>4</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>50</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>10</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AJ37">
+        <v>25</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>26</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>25</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>30</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>28</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>29</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>35</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>30</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>40</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>38</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>39</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38">
+        <v>38</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>19</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>5</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>18</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>26</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>26</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>26</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>30</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>29</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>30</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>30</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>23</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>45</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>25</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>15</v>
+      </c>
+      <c r="AC39">
+        <v>1</v>
+      </c>
+      <c r="AD39">
+        <v>5</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>50</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>5</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>28</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>29</v>
+      </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>29</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>29</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>29</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>29</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>30</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>19</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>34</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>30</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>42</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
+        <v>15</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>5</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>55</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <v>5</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>23</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>10</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>15</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>27</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>29</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>30</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>30</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>40</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>30</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>40</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>30</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>15</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>4</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>7</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41">
+        <v>50</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>23</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>29</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>29</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
